--- a/medicine/Enfance/Baby_Looney_Tunes/Baby_Looney_Tunes.xlsx
+++ b/medicine/Enfance/Baby_Looney_Tunes/Baby_Looney_Tunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Baby Looney Tunes est une série télévisée d'animation américaine, créée par Jeffrey Gatrall, Michael Hack et Scott Heming, diffusée du 2 juin 2002 au 10 octobre 2003 sur Kids' WB, puis du 14 juin 2004 au 16 octobre 2005 sur Cartoon Network.
@@ -514,7 +526,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre original : Baby Looney Tunes
 Création : Jeffrey Gatrall, Michael Hack et Scott Heming
@@ -563,17 +577,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix originales
-Samuel Vincent : Bébé Bugs Bunny, Bébé Daffy Duck, Bébé Titi
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Samuel Vincent : Bébé Bugs Bunny, Bébé Daffy Duck, Bébé Titi
 Ian James Corlett : Bébé Taz
 Terry Klassen : Bébé Sylvestre
 Britt McKillip : Bébé Lola
 Janyse Jaud : Bébé Mélissa Duck
 Chiara Zanni : Bébé Pétunia Pig
 June Foray : Mémé
-Brian Drummond : Oncle Floyd, Elmer Fudd
-Voix françaises
-Marc Saez : Bébé Bugs Bunny
+Brian Drummond : Oncle Floyd, Elmer Fudd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marc Saez : Bébé Bugs Bunny
 Jérémy Prévost : Bébé Daffy Duck, Elmer Fudd
 Hervé Rey : Bébé Sylvestre
 Patricia Legrand : Bébé Titi
@@ -585,34 +638,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Baby_Looney_Tunes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Personnages principaux
-Bébé Bunny : Il est indiqué comme le plus âgé des bébés, ce qui en fait leur chef officiel. Son leadership a cependant tendance à créer des tensions, en particulier avec Lola et Daffy. Bugs est parfois taquiné pour aimer Lola et est vraiment embêté par les insultes de Daffy.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bébé Bunny : Il est indiqué comme le plus âgé des bébés, ce qui en fait leur chef officiel. Son leadership a cependant tendance à créer des tensions, en particulier avec Lola et Daffy. Bugs est parfois taquiné pour aimer Lola et est vraiment embêté par les insultes de Daffy.
 Bébé Titi : Un canari jaune. Le plus jeune et le plus petit du gang. Représenté comme un brainstormer, parce qu'il trouve des idées quand les autres en sortent tout juste. Il est très sensible à sa petite trame (qu'il doit surmonter dans la plupart des épisodes centrés autour de lui) et curieux de ce qu'il rencontre.
 Bébé Daffy : Il est deuxième en tête après Bugs. Il veut toujours son gain personnel. Quand il n'obtient pas ce qu'il veut, il croit être traité injustement, sans remarquer les inconvénients infligés aux autres. Mais la moitié du temps, il a de bonnes intentions. Il est connu pour avoir peur des robots. Daffy est jaloux de Bugs. Il dit souvent "Wouhou" très similaire à ses précédents courts métrages. Assez fréquemment, il se moque de Bugs en se moquant de son nom et d'autres choses.
 Bébé Lola : Parfois, elle prend les choses en main. Son indépendance est plus grande que les autres et elle a des tendances plus enfantines que les autres filles.
@@ -625,34 +683,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Baby_Looney_Tunes</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Saison 1 (2001-2002)
-Un jouet incassable / Surprise !
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 1 (2001-2002)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un jouet incassable / Surprise !
 Opération Doudou / Comme un canard dans l'eau
 Vive l'école ! / C'est moi le plus grand !
 Le Voleur de cookies / Imagination en boîte
@@ -664,9 +727,43 @@
 Où est passé Harry ? / Une dent contre Daffy
 La toupie a du toupet / L'Ami de neige
 L'Ombre d'un doute / Noël en juillet
-Bruce Bunny / Bienvenue au club
-Saison 2 (2002-2003)
-Le Bouquet final / Le Petit Chat du tonnerre
+Bruce Bunny / Bienvenue au club</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 2 (2002-2003)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Bouquet final / Le Petit Chat du tonnerre
 Le Monstre des toilettes / Les Looney Tunes font leur show
 Le marchand de sable va passer / Le Robot super-guerrier
 L'Heure du bain / Bugs et Lola
@@ -690,11 +787,79 @@
 Le plus petit, c'est Titi ! / Faites-moi confiance
 Sylvestre, quel cornichon ! / Temps mort
 Le Jour de l'arbre / Désordre, c'est un ordre !
-L'Album de photos / Faut qu'ça déménage
-Épisode spécial au cinéma (2003)
-Baby Looney Tunes : Joyeuses Pâques (42 minutes)
-Saison 3 (2003)
-Voyage au supermarché / Un Musée à domicile
+L'Album de photos / Faut qu'ça déménage</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Épisode spécial au cinéma (2003)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Baby Looney Tunes : Joyeuses Pâques (42 minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baby_Looney_Tunes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 3 (2003)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Voyage au supermarché / Un Musée à domicile
 Le Match de baseball / La Chasse au trésor du musée
 Le bon, la brute et le bonbon / Ça roule
 Rien de tel qu'un peu d'imprévu / Vaccination
